--- a/contratos/contratos-9-2012.xlsx
+++ b/contratos/contratos-9-2012.xlsx
@@ -580,13 +580,13 @@
     <t>TOME SARA EVA GRACIELA</t>
   </si>
   <si>
-    <t>FERNANDEZ MARIO H, GALLICET OSCAR M</t>
-  </si>
-  <si>
-    <t>IZAGUIRRE CARLOS MARIA, MOREND MARIA ELENA Y MOREND MARIA TERESA</t>
-  </si>
-  <si>
-    <t>MARSICO GUILLERMO MIGUEL, MARSICO JUAN EDUARDO</t>
+    <t>FERNANDEZ MARIO H. GALLICET OSCAR M</t>
+  </si>
+  <si>
+    <t>IZAGUIRRE CARLOS MARIA. MOREND MARIA ELENA Y MOREND MARIA TERESA</t>
+  </si>
+  <si>
+    <t>MARSICO GUILLERMO MIGUEL. MARSICO JUAN EDUARDO</t>
   </si>
   <si>
     <t>OLIVERA JOSE PEDRO</t>
@@ -610,7 +610,7 @@
     <t>SYLVESTRE CARLOS OMAR</t>
   </si>
   <si>
-    <t>TRABICHET MARIA, VERGARA ADEL Y OTRA</t>
+    <t>TRABICHET MARIA. VERGARA ADEL Y OTRA</t>
   </si>
   <si>
     <t>BOZZI GUSTAVO LEONARDO</t>
@@ -991,445 +991,445 @@
     <t>137</t>
   </si>
   <si>
-    <t>342,00</t>
-  </si>
-  <si>
-    <t>7.497,01</t>
-  </si>
-  <si>
-    <t>9.900,00</t>
-  </si>
-  <si>
-    <t>123,00</t>
-  </si>
-  <si>
-    <t>19,80</t>
-  </si>
-  <si>
-    <t>7.800,00</t>
-  </si>
-  <si>
-    <t>78.199,96</t>
-  </si>
-  <si>
-    <t>34.201,67</t>
-  </si>
-  <si>
-    <t>5.319,50</t>
-  </si>
-  <si>
-    <t>680,00</t>
-  </si>
-  <si>
-    <t>4.407,64</t>
-  </si>
-  <si>
-    <t>4.655,00</t>
-  </si>
-  <si>
-    <t>1.844,00</t>
-  </si>
-  <si>
-    <t>2.536,65</t>
-  </si>
-  <si>
-    <t>3.200,00</t>
-  </si>
-  <si>
-    <t>9.497,95</t>
-  </si>
-  <si>
-    <t>1.218,00</t>
-  </si>
-  <si>
-    <t>9.961,43</t>
-  </si>
-  <si>
-    <t>90,00</t>
-  </si>
-  <si>
-    <t>5.654,20</t>
-  </si>
-  <si>
-    <t>262,31</t>
-  </si>
-  <si>
-    <t>634,86</t>
-  </si>
-  <si>
-    <t>160,00</t>
-  </si>
-  <si>
-    <t>5.772,40</t>
-  </si>
-  <si>
-    <t>10.159,43</t>
-  </si>
-  <si>
-    <t>280,10</t>
-  </si>
-  <si>
-    <t>120,00</t>
-  </si>
-  <si>
-    <t>949,00</t>
-  </si>
-  <si>
-    <t>1.647,30</t>
-  </si>
-  <si>
-    <t>71,38</t>
-  </si>
-  <si>
-    <t>2.874,00</t>
-  </si>
-  <si>
-    <t>7,22</t>
-  </si>
-  <si>
-    <t>10.732,73</t>
-  </si>
-  <si>
-    <t>2.291,00</t>
-  </si>
-  <si>
-    <t>21.286,69</t>
-  </si>
-  <si>
-    <t>1.960,28</t>
-  </si>
-  <si>
-    <t>3.740,00</t>
-  </si>
-  <si>
-    <t>9.750,00</t>
-  </si>
-  <si>
-    <t>8.100,00</t>
-  </si>
-  <si>
-    <t>224,19</t>
-  </si>
-  <si>
-    <t>2.790,00</t>
-  </si>
-  <si>
-    <t>11.000,00</t>
-  </si>
-  <si>
-    <t>433,87</t>
-  </si>
-  <si>
-    <t>541,56</t>
-  </si>
-  <si>
-    <t>140,00</t>
-  </si>
-  <si>
-    <t>34,38</t>
-  </si>
-  <si>
-    <t>1.326,00</t>
-  </si>
-  <si>
-    <t>339,84</t>
-  </si>
-  <si>
-    <t>732,58</t>
-  </si>
-  <si>
-    <t>1.195,25</t>
-  </si>
-  <si>
-    <t>5.760,00</t>
-  </si>
-  <si>
-    <t>25.000,00</t>
-  </si>
-  <si>
-    <t>17.028,00</t>
-  </si>
-  <si>
-    <t>1.679,00</t>
-  </si>
-  <si>
-    <t>1.911,02</t>
-  </si>
-  <si>
-    <t>4.890,00</t>
-  </si>
-  <si>
-    <t>330,00</t>
-  </si>
-  <si>
-    <t>686,55</t>
-  </si>
-  <si>
-    <t>3.000,00</t>
-  </si>
-  <si>
-    <t>122.721,25</t>
-  </si>
-  <si>
-    <t>9.840,00</t>
-  </si>
-  <si>
-    <t>45,44</t>
-  </si>
-  <si>
-    <t>17,00</t>
-  </si>
-  <si>
-    <t>171,00</t>
-  </si>
-  <si>
-    <t>80,00</t>
-  </si>
-  <si>
-    <t>299,00</t>
-  </si>
-  <si>
-    <t>19.050,38</t>
-  </si>
-  <si>
-    <t>272,16</t>
-  </si>
-  <si>
-    <t>4.061,20</t>
-  </si>
-  <si>
-    <t>1.742,00</t>
-  </si>
-  <si>
-    <t>113,17</t>
-  </si>
-  <si>
-    <t>87,58</t>
-  </si>
-  <si>
-    <t>16,92</t>
-  </si>
-  <si>
-    <t>5.134,00</t>
-  </si>
-  <si>
-    <t>25,00</t>
-  </si>
-  <si>
-    <t>3.513,50</t>
-  </si>
-  <si>
-    <t>14.438,00</t>
-  </si>
-  <si>
-    <t>2.267,00</t>
-  </si>
-  <si>
-    <t>3.872,00</t>
-  </si>
-  <si>
-    <t>220,00</t>
-  </si>
-  <si>
-    <t>57.262,71</t>
-  </si>
-  <si>
-    <t>975,00</t>
-  </si>
-  <si>
-    <t>50,00</t>
-  </si>
-  <si>
-    <t>1.500,00</t>
-  </si>
-  <si>
-    <t>1.850,00</t>
-  </si>
-  <si>
-    <t>3.877,70</t>
-  </si>
-  <si>
-    <t>161,00</t>
-  </si>
-  <si>
-    <t>9.950,00</t>
-  </si>
-  <si>
-    <t>268,99</t>
-  </si>
-  <si>
-    <t>3.780,00</t>
-  </si>
-  <si>
-    <t>2.000,00</t>
-  </si>
-  <si>
-    <t>700,00</t>
-  </si>
-  <si>
-    <t>1.000,00</t>
-  </si>
-  <si>
-    <t>773,50</t>
-  </si>
-  <si>
-    <t>250,00</t>
-  </si>
-  <si>
-    <t>600,00</t>
-  </si>
-  <si>
-    <t>12.000,00</t>
-  </si>
-  <si>
-    <t>9.525,09</t>
-  </si>
-  <si>
-    <t>1.900,00</t>
-  </si>
-  <si>
-    <t>650,00</t>
-  </si>
-  <si>
-    <t>100,00</t>
-  </si>
-  <si>
-    <t>2.450,00</t>
-  </si>
-  <si>
-    <t>400,00</t>
-  </si>
-  <si>
-    <t>480,00</t>
-  </si>
-  <si>
-    <t>4.960,00</t>
-  </si>
-  <si>
-    <t>500,00</t>
-  </si>
-  <si>
-    <t>105,00</t>
-  </si>
-  <si>
-    <t>2.125,00</t>
-  </si>
-  <si>
-    <t>200,00</t>
-  </si>
-  <si>
-    <t>1.320,00</t>
-  </si>
-  <si>
-    <t>1.098,50</t>
-  </si>
-  <si>
-    <t>1.520,00</t>
-  </si>
-  <si>
-    <t>160,24</t>
-  </si>
-  <si>
-    <t>182,00</t>
-  </si>
-  <si>
-    <t>50,32</t>
-  </si>
-  <si>
-    <t>176,00</t>
-  </si>
-  <si>
-    <t>4.280,00</t>
-  </si>
-  <si>
-    <t>850,00</t>
-  </si>
-  <si>
-    <t>384,25</t>
-  </si>
-  <si>
-    <t>35,00</t>
-  </si>
-  <si>
-    <t>23,64</t>
-  </si>
-  <si>
-    <t>3.120,00</t>
-  </si>
-  <si>
-    <t>24,60</t>
-  </si>
-  <si>
-    <t>10.725,00</t>
-  </si>
-  <si>
-    <t>4.517,34</t>
-  </si>
-  <si>
-    <t>1.050,00</t>
-  </si>
-  <si>
-    <t>99,20</t>
-  </si>
-  <si>
-    <t>357,52</t>
-  </si>
-  <si>
-    <t>608,00</t>
-  </si>
-  <si>
-    <t>95,00</t>
-  </si>
-  <si>
-    <t>289,00</t>
-  </si>
-  <si>
-    <t>117,72</t>
-  </si>
-  <si>
-    <t>886,87</t>
-  </si>
-  <si>
-    <t>3.958,90</t>
-  </si>
-  <si>
-    <t>1.174.100,82</t>
-  </si>
-  <si>
-    <t>1.149,50</t>
-  </si>
-  <si>
-    <t>6.910,00</t>
-  </si>
-  <si>
-    <t>2.600,00</t>
-  </si>
-  <si>
-    <t>17.000,00</t>
-  </si>
-  <si>
-    <t>50.200,00</t>
-  </si>
-  <si>
-    <t>10.000,00</t>
-  </si>
-  <si>
-    <t>33.300,00</t>
-  </si>
-  <si>
-    <t>20.000,00</t>
-  </si>
-  <si>
-    <t>187.659,00</t>
-  </si>
-  <si>
-    <t>5.970,20</t>
-  </si>
-  <si>
-    <t>39.350,00</t>
-  </si>
-  <si>
-    <t>15.995,00</t>
+    <t>342.00</t>
+  </si>
+  <si>
+    <t>7497.01</t>
+  </si>
+  <si>
+    <t>9900.00</t>
+  </si>
+  <si>
+    <t>123.00</t>
+  </si>
+  <si>
+    <t>19.80</t>
+  </si>
+  <si>
+    <t>7800.00</t>
+  </si>
+  <si>
+    <t>78199.96</t>
+  </si>
+  <si>
+    <t>34201.67</t>
+  </si>
+  <si>
+    <t>5319.50</t>
+  </si>
+  <si>
+    <t>680.00</t>
+  </si>
+  <si>
+    <t>4407.64</t>
+  </si>
+  <si>
+    <t>4655.00</t>
+  </si>
+  <si>
+    <t>1844.00</t>
+  </si>
+  <si>
+    <t>2536.65</t>
+  </si>
+  <si>
+    <t>3200.00</t>
+  </si>
+  <si>
+    <t>9497.95</t>
+  </si>
+  <si>
+    <t>1218.00</t>
+  </si>
+  <si>
+    <t>9961.43</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>5654.20</t>
+  </si>
+  <si>
+    <t>262.31</t>
+  </si>
+  <si>
+    <t>634.86</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>5772.40</t>
+  </si>
+  <si>
+    <t>10159.43</t>
+  </si>
+  <si>
+    <t>280.10</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>949.00</t>
+  </si>
+  <si>
+    <t>1647.30</t>
+  </si>
+  <si>
+    <t>71.38</t>
+  </si>
+  <si>
+    <t>2874.00</t>
+  </si>
+  <si>
+    <t>7.22</t>
+  </si>
+  <si>
+    <t>10732.73</t>
+  </si>
+  <si>
+    <t>2291.00</t>
+  </si>
+  <si>
+    <t>21286.69</t>
+  </si>
+  <si>
+    <t>1960.28</t>
+  </si>
+  <si>
+    <t>3740.00</t>
+  </si>
+  <si>
+    <t>9750.00</t>
+  </si>
+  <si>
+    <t>8100.00</t>
+  </si>
+  <si>
+    <t>224.19</t>
+  </si>
+  <si>
+    <t>2790.00</t>
+  </si>
+  <si>
+    <t>11000.00</t>
+  </si>
+  <si>
+    <t>433.87</t>
+  </si>
+  <si>
+    <t>541.56</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>34.38</t>
+  </si>
+  <si>
+    <t>1326.00</t>
+  </si>
+  <si>
+    <t>339.84</t>
+  </si>
+  <si>
+    <t>732.58</t>
+  </si>
+  <si>
+    <t>1195.25</t>
+  </si>
+  <si>
+    <t>5760.00</t>
+  </si>
+  <si>
+    <t>25000.00</t>
+  </si>
+  <si>
+    <t>17028.00</t>
+  </si>
+  <si>
+    <t>1679.00</t>
+  </si>
+  <si>
+    <t>1911.02</t>
+  </si>
+  <si>
+    <t>4890.00</t>
+  </si>
+  <si>
+    <t>330.00</t>
+  </si>
+  <si>
+    <t>686.55</t>
+  </si>
+  <si>
+    <t>3000.00</t>
+  </si>
+  <si>
+    <t>122721.25</t>
+  </si>
+  <si>
+    <t>9840.00</t>
+  </si>
+  <si>
+    <t>45.44</t>
+  </si>
+  <si>
+    <t>17.00</t>
+  </si>
+  <si>
+    <t>171.00</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>299.00</t>
+  </si>
+  <si>
+    <t>19050.38</t>
+  </si>
+  <si>
+    <t>272.16</t>
+  </si>
+  <si>
+    <t>4061.20</t>
+  </si>
+  <si>
+    <t>1742.00</t>
+  </si>
+  <si>
+    <t>113.17</t>
+  </si>
+  <si>
+    <t>87.58</t>
+  </si>
+  <si>
+    <t>16.92</t>
+  </si>
+  <si>
+    <t>5134.00</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>3513.50</t>
+  </si>
+  <si>
+    <t>14438.00</t>
+  </si>
+  <si>
+    <t>2267.00</t>
+  </si>
+  <si>
+    <t>3872.00</t>
+  </si>
+  <si>
+    <t>220.00</t>
+  </si>
+  <si>
+    <t>57262.71</t>
+  </si>
+  <si>
+    <t>975.00</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>1500.00</t>
+  </si>
+  <si>
+    <t>1850.00</t>
+  </si>
+  <si>
+    <t>3877.70</t>
+  </si>
+  <si>
+    <t>161.00</t>
+  </si>
+  <si>
+    <t>9950.00</t>
+  </si>
+  <si>
+    <t>268.99</t>
+  </si>
+  <si>
+    <t>3780.00</t>
+  </si>
+  <si>
+    <t>2000.00</t>
+  </si>
+  <si>
+    <t>700.00</t>
+  </si>
+  <si>
+    <t>1000.00</t>
+  </si>
+  <si>
+    <t>773.50</t>
+  </si>
+  <si>
+    <t>250.00</t>
+  </si>
+  <si>
+    <t>600.00</t>
+  </si>
+  <si>
+    <t>12000.00</t>
+  </si>
+  <si>
+    <t>9525.09</t>
+  </si>
+  <si>
+    <t>1900.00</t>
+  </si>
+  <si>
+    <t>650.00</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>2450.00</t>
+  </si>
+  <si>
+    <t>400.00</t>
+  </si>
+  <si>
+    <t>480.00</t>
+  </si>
+  <si>
+    <t>4960.00</t>
+  </si>
+  <si>
+    <t>500.00</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>2125.00</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>1320.00</t>
+  </si>
+  <si>
+    <t>1098.50</t>
+  </si>
+  <si>
+    <t>1520.00</t>
+  </si>
+  <si>
+    <t>160.24</t>
+  </si>
+  <si>
+    <t>182.00</t>
+  </si>
+  <si>
+    <t>50.32</t>
+  </si>
+  <si>
+    <t>176.00</t>
+  </si>
+  <si>
+    <t>4280.00</t>
+  </si>
+  <si>
+    <t>850.00</t>
+  </si>
+  <si>
+    <t>384.25</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>23.64</t>
+  </si>
+  <si>
+    <t>3120.00</t>
+  </si>
+  <si>
+    <t>24.60</t>
+  </si>
+  <si>
+    <t>10725.00</t>
+  </si>
+  <si>
+    <t>4517.34</t>
+  </si>
+  <si>
+    <t>1050.00</t>
+  </si>
+  <si>
+    <t>99.20</t>
+  </si>
+  <si>
+    <t>357.52</t>
+  </si>
+  <si>
+    <t>608.00</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>289.00</t>
+  </si>
+  <si>
+    <t>117.72</t>
+  </si>
+  <si>
+    <t>886.87</t>
+  </si>
+  <si>
+    <t>3958.90</t>
+  </si>
+  <si>
+    <t>1174100.82</t>
+  </si>
+  <si>
+    <t>1149.50</t>
+  </si>
+  <si>
+    <t>6910.00</t>
+  </si>
+  <si>
+    <t>2600.00</t>
+  </si>
+  <si>
+    <t>17000.00</t>
+  </si>
+  <si>
+    <t>50200.00</t>
+  </si>
+  <si>
+    <t>10000.00</t>
+  </si>
+  <si>
+    <t>33300.00</t>
+  </si>
+  <si>
+    <t>20000.00</t>
+  </si>
+  <si>
+    <t>187659.00</t>
+  </si>
+  <si>
+    <t>5970.20</t>
+  </si>
+  <si>
+    <t>39350.00</t>
+  </si>
+  <si>
+    <t>15995.00</t>
   </si>
 </sst>
 </file>
